--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Ejecución 2022-07-29" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Casos de prueba" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Casos de prueba" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Ejecución 2022-07-29" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Casos de prueba'!$A$1:$F$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Ejecución 2022-07-29'!$A$1:$D$11</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Casos de prueba'!$A$1:$F$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Ejecución 2022-07-29'!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,6 +27,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
+    <t xml:space="preserve">Historia de Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso de prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondición</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasos seguidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado esperado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha</t>
   </si>
   <si>
@@ -73,24 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">TC-01 El usuario continúa sin aceptar los términos y condiciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historia de Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso de prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondición</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasos seguidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado esperado</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,6 +127,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -187,11 +194,23 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,16 +219,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,13 +308,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="105.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="84.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="96.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="95.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="102.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="95.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F12"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.98"/>
@@ -311,157 +381,157 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
+      <c r="A5" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+      <c r="A6" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
+      <c r="A8" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
+      <c r="A9" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
+      <c r="A10" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
+      <c r="A11" s="5" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -475,60 +545,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="38.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="105.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="84.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="96.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="95.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="102.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="95.59"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="0"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F12"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -9,11 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Ejecución 2022-07-29" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Casos de prueba'!$A$1:$F$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Ejecución 2022-07-29'!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Historia de Usuario</t>
   </si>
@@ -43,65 +41,16 @@
   </si>
   <si>
     <t xml:space="preserve">Resultado esperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso de Prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de ejecución</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-01 El usuario escribe al asistente en horario laborable un día de fin de semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-02 El usuario escribe al asistente en horario no laborable un día laborable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-03 El usuario escribe al asistente en horario laborable un día festivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-01 El usuario escribe de nuevo al asistente en horario no laborable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-02 El usuario supera el límite de mensajes al asistente en horario no laborable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-03 El usuario vuelve a escribir tras haber pasado 24h de haber sido vetado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-01 El usuario acepta los términos y condiciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-02 El usuario no acepta los términos y condiciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-03 El usuario escribe cuando el asistente pregunta si acepta los términos y condiciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC-01 El usuario continúa sin aceptar los términos y condiciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,13 +83,6 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00A933"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -194,7 +136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,18 +151,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -283,7 +213,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -296,10 +226,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -314,7 +240,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="105.64"/>
@@ -360,189 +286,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>44770</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D11"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Casos de prueba" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Casos de prueba'!$A$1:$F$12</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Casos de prueba'!$A$1:$G$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Historia de Usuario</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pasos seguidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos</t>
   </si>
   <si>
     <t xml:space="preserve">Resultado esperado</t>
@@ -234,21 +237,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="105.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="84.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="96.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="95.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="102.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="95.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="102.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="95.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,13 +273,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F12"/>
+  <autoFilter ref="A1:G12"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
